--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -326,6 +326,12 @@
     <t>dataset_type</t>
   </si>
   <si>
+    <t>HiFi-Slide</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -446,12 +452,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
-    <t>HiFi-Slides</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -1115,7 +1115,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-22T10:40:19-08:00</t>
+    <t>2023-11-24T09:48:56-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -312,7 +312,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="274">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -647,6 +647,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -770,6 +776,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -1061,18 +1073,18 @@
     <t>roi_segmentation_strategy</t>
   </si>
   <si>
-    <t>Automated</t>
+    <t>Manual segmentation</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000305</t>
+  </si>
+  <si>
+    <t>Automated segmentation</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000304</t>
   </si>
   <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000305</t>
-  </si>
-  <si>
     <t>anatomical_structure_label</t>
   </si>
   <si>
@@ -1115,7 +1127,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:48:56-08:00</t>
+    <t>2024-01-05T14:05:37-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1300,103 +1312,103 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
@@ -1404,7 +1416,7 @@
         <v>60</v>
       </c>
       <c r="AN2" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -1419,10 +1431,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$39</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1510,10 +1522,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1531,10 +1543,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1552,10 +1564,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -1573,42 +1585,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B2" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -1672,18 +1684,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B2" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -1730,16 +1742,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
@@ -1747,13 +1759,13 @@
         <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C2" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2164,7 +2176,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2282,6 +2294,14 @@
         <v>124</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2289,7 +2309,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2297,306 +2317,314 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2614,42 +2642,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2667,26 +2695,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2704,18 +2732,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -291,13 +291,16 @@
     </comment>
     <comment ref="AM1" authorId="1">
       <text>
-        <t>(Required) A semicolon separated list of shared files to be included in the
-dataset. The full file path should be used (e.g.,
-"./shared/raw/3146_LabWorksheet.txt; ./shared/raw/3146_GNP_config.ini"). After
-ingest, these files will be copied to the respective locations within the
-dataset directory tree. For example, "./shared/raw/3146_LabWorksheet.txt" will
-be copied to "./raw/3146_LabWorksheet.txt". This field is used for internal
-HuBMAP processing.</t>
+        <t>(Required) A semicolon separated list of non-shared files to be included in the
+dataset. The path assumes the files are located in the "TOP/non-global/"
+directory. For example, for the file is
+TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
+field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
+these files will be copied to the appropriate locations within the respective
+dataset directory tree. This field is used for internal HuBMAP processing.
+Examples for GeoMx and PhenoCycler are provided in the File Locations
+documentation:
+https://docs.google.com/document/d/1n2McSs9geA9Eli4QWQaB3c9R3wo5d5U1Xd57DWQfN5Q/edit#heading=h.1u82i4axggee</t>
       </text>
     </comment>
     <comment ref="AN1" authorId="1">
@@ -1106,7 +1109,7 @@
     <t>hybcode_pack_lot_number</t>
   </si>
   <si>
-    <t>shared_files</t>
+    <t>non_global_files</t>
   </si>
   <si>
     <t>metadata_schema_id</t>
@@ -1127,7 +1130,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-05T14:05:37-08:00</t>
+    <t>2024-01-09T13:35:01-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1285,7 +1288,7 @@
     <col min="36" max="36" style="37" width="11.30078125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" style="38" width="19.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" style="39" width="24.71484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" style="40" width="11.66015625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" style="40" width="15.46484375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" style="41" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="318">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -425,6 +425,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -530,6 +536,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -608,6 +620,18 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -638,6 +662,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -650,6 +680,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -686,12 +722,24 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -719,6 +767,132 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -731,28 +905,28 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -767,18 +941,18 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -809,12 +983,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -827,34 +995,16 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
   </si>
   <si>
     <t>MIBIscope</t>
@@ -863,18 +1013,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -887,36 +1025,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1034,16 +1142,34 @@
     <t>oligo_probe_panel</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 16 BC; PN 1000476</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000308</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Mouse Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-MsWTA-4</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
+  </si>
+  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000306</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 16 BC; PN 1000476</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000308</t>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit - Small; PN 1000365</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
     <t>Custom</t>
@@ -1052,6 +1178,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
   </si>
   <si>
+    <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
+  </si>
+  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
   </si>
   <si>
@@ -1130,7 +1262,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-09T13:35:01-08:00</t>
+    <t>2024-03-28T07:39:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1250,46 +1382,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="18.53125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="17.37109375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="36.68359375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="35.25" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="34.08984375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="24.6328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="32.2265625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="31.0703125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="29.35546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="28.1953125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="17.39453125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="22.1796875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="8.61328125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" style="31" width="29.17578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" style="32" width="24.62109375" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="24.86328125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="22.30078125" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="19.6171875" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" style="36" width="17.0546875" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" style="37" width="11.30078125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" style="38" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" style="39" width="24.71484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" style="40" width="15.46484375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" style="41" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="15.984375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="14.984375" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="16.76953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="31.64453125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="30.40625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="29.40625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="21.25" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="27.80078125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="26.80078125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="25.3203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="24.3203125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="19.1328125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" style="30" width="7.4296875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" style="31" width="25.16796875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" style="32" width="21.23828125" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="21.44921875" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="19.23828125" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="16.921875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" style="36" width="14.7109375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" style="37" width="9.74609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" style="38" width="17.18359375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" style="39" width="21.3203125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" style="40" width="13.33984375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" style="41" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1306,138 +1438,138 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>228</v>
+        <v>264</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>249</v>
+        <v>293</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>250</v>
+        <v>294</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>251</v>
+        <v>295</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>252</v>
+        <v>296</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>257</v>
+        <v>301</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>258</v>
+        <v>302</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>259</v>
+        <v>303</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>260</v>
+        <v>304</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>261</v>
+        <v>305</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>262</v>
+        <v>306</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>263</v>
+        <v>307</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>264</v>
+        <v>308</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>265</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>266</v>
+      <c r="D2" t="s" s="5">
+        <v>62</v>
+      </c>
+      <c r="AN2" t="s" s="41">
+        <v>310</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$15</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$39</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1451,7 +1583,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1473,7 +1605,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'target_retrieval_incubation_time_unit'!$A$1:$A$1</formula1>
+      <formula1>'target_retrieval_incubation_tim'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -1484,17 +1616,17 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'proteinasek_incubation_time_unit'!$A$1:$A$1</formula1>
+      <formula1>'proteinasek_incubation_time_uni'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="Y2:Y1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'probe_hybridization_time_unit'!$A$1:$A$1</formula1>
+      <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$5</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1524,11 +1656,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" t="s">
-        <v>217</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1545,11 +1677,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" t="s">
-        <v>217</v>
+      <c r="A1" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1559,18 +1691,26 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>216</v>
-      </c>
-      <c r="B1" t="s">
-        <v>217</v>
+      <c r="A1" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -1580,50 +1720,82 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B1" t="s">
-        <v>240</v>
+      <c r="A1" t="s" s="0">
+        <v>275</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>276</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>241</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>278</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
+      <c r="A3" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>280</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>245</v>
-      </c>
-      <c r="B4" t="s">
-        <v>246</v>
+      <c r="A4" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>282</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>247</v>
-      </c>
-      <c r="B5" t="s">
-        <v>248</v>
+      <c r="A5" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -1640,13 +1812,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>94</v>
+      <c r="A1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>95</v>
+      <c r="A2" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1663,13 +1835,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>94</v>
+      <c r="A1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>95</v>
+      <c r="A2" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1686,19 +1858,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>253</v>
-      </c>
-      <c r="B1" t="s">
-        <v>254</v>
+      <c r="A1" t="s" s="0">
+        <v>297</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>298</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>255</v>
-      </c>
-      <c r="B2" t="s">
-        <v>256</v>
+      <c r="A2" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1715,13 +1887,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>94</v>
+      <c r="A1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>95</v>
+      <c r="A2" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1737,38 +1909,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="17.2578125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="79.42578125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="14.88671875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D1" t="s">
-        <v>272</v>
+      <c r="A1" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>312</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>314</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>316</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" t="s">
-        <v>269</v>
-      </c>
-      <c r="C2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D2" t="s">
-        <v>273</v>
+      <c r="A2" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1778,274 +1950,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2055,98 +2235,106 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B1" t="s">
-        <v>72</v>
+      <c r="A1" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>74</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>74</v>
+      <c r="A2" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>76</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
+      <c r="A3" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>78</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
+      <c r="A4" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>80</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" t="s">
-        <v>80</v>
+      <c r="A5" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>82</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>81</v>
-      </c>
-      <c r="B6" t="s">
-        <v>82</v>
+      <c r="A6" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>84</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>83</v>
-      </c>
-      <c r="B7" t="s">
-        <v>84</v>
+      <c r="A7" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>86</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B8" t="s">
-        <v>86</v>
+      <c r="A8" t="s" s="0">
+        <v>87</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>88</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
+      <c r="A9" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>90</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>90</v>
+      <c r="A10" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>92</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" t="s">
-        <v>92</v>
+      <c r="A11" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2163,13 +2351,13 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>94</v>
+      <c r="A1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>95</v>
+      <c r="A2" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2179,130 +2367,178 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" t="s">
-        <v>98</v>
+      <c r="A1" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>102</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" t="s">
-        <v>100</v>
+      <c r="A2" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>104</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
+      <c r="A3" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" t="s">
-        <v>104</v>
+      <c r="A4" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>108</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>105</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
+      <c r="A5" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>110</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" t="s">
-        <v>108</v>
+      <c r="A6" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B7" t="s">
-        <v>110</v>
+      <c r="A7" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>114</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
+      <c r="A8" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>116</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" t="s">
-        <v>114</v>
+      <c r="A9" t="s" s="0">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>118</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B10" t="s">
-        <v>116</v>
+      <c r="A10" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>120</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>117</v>
-      </c>
-      <c r="B11" t="s">
-        <v>118</v>
+      <c r="A11" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
+      <c r="A12" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>124</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B13" t="s">
-        <v>122</v>
+      <c r="A13" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>126</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" t="s">
-        <v>124</v>
+      <c r="A14" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>128</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B15" t="s">
-        <v>126</v>
+      <c r="A15" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2312,322 +2548,402 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B1" t="s">
-        <v>129</v>
+      <c r="A1" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B2" t="s">
-        <v>131</v>
+      <c r="A2" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
+      <c r="A3" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" t="s">
-        <v>135</v>
+      <c r="A4" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" t="s">
-        <v>137</v>
+      <c r="A5" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" t="s">
-        <v>139</v>
+      <c r="A6" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B7" t="s">
-        <v>141</v>
+      <c r="A7" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B8" t="s">
-        <v>143</v>
+      <c r="A8" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>144</v>
-      </c>
-      <c r="B9" t="s">
-        <v>145</v>
+      <c r="A9" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>146</v>
-      </c>
-      <c r="B10" t="s">
-        <v>147</v>
+      <c r="A10" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B11" t="s">
-        <v>149</v>
+      <c r="A11" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>150</v>
-      </c>
-      <c r="B12" t="s">
-        <v>151</v>
+      <c r="A12" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>152</v>
-      </c>
-      <c r="B13" t="s">
-        <v>153</v>
+      <c r="A13" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" t="s">
-        <v>155</v>
+      <c r="A14" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>156</v>
-      </c>
-      <c r="B15" t="s">
-        <v>157</v>
+      <c r="A15" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>158</v>
-      </c>
-      <c r="B16" t="s">
-        <v>159</v>
+      <c r="A16" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>160</v>
-      </c>
-      <c r="B17" t="s">
-        <v>161</v>
+      <c r="A17" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>162</v>
-      </c>
-      <c r="B18" t="s">
-        <v>163</v>
+      <c r="A18" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B19" t="s">
-        <v>165</v>
+      <c r="A19" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" t="s">
-        <v>167</v>
+      <c r="A20" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>168</v>
-      </c>
-      <c r="B21" t="s">
-        <v>169</v>
+      <c r="A21" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>170</v>
-      </c>
-      <c r="B22" t="s">
-        <v>171</v>
+      <c r="A22" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" t="s">
-        <v>173</v>
+      <c r="A23" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B24" t="s">
-        <v>175</v>
+      <c r="A24" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B25" t="s">
-        <v>177</v>
+      <c r="A25" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B26" t="s">
-        <v>179</v>
+      <c r="A26" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>180</v>
-      </c>
-      <c r="B27" t="s">
-        <v>181</v>
+      <c r="A27" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>182</v>
-      </c>
-      <c r="B28" t="s">
-        <v>183</v>
+      <c r="A28" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" t="s">
-        <v>185</v>
+      <c r="A29" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>186</v>
-      </c>
-      <c r="B30" t="s">
-        <v>187</v>
+      <c r="A30" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>188</v>
-      </c>
-      <c r="B31" t="s">
-        <v>189</v>
+      <c r="A31" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>190</v>
-      </c>
-      <c r="B32" t="s">
-        <v>191</v>
+      <c r="A32" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>192</v>
-      </c>
-      <c r="B33" t="s">
-        <v>193</v>
+      <c r="A33" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>195</v>
+      <c r="A34" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>211</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" t="s">
-        <v>197</v>
+      <c r="A35" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>213</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>198</v>
-      </c>
-      <c r="B36" t="s">
-        <v>199</v>
+      <c r="A36" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>215</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-      <c r="B37" t="s">
-        <v>201</v>
+      <c r="A37" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>217</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>202</v>
-      </c>
-      <c r="B38" t="s">
-        <v>203</v>
+      <c r="A38" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>219</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>204</v>
-      </c>
-      <c r="B39" t="s">
-        <v>205</v>
+      <c r="A39" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>226</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2644,43 +2960,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B1" t="s">
-        <v>209</v>
+      <c r="A1" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B2" t="s">
-        <v>211</v>
+      <c r="A2" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>212</v>
-      </c>
-      <c r="B3" t="s">
-        <v>213</v>
+      <c r="A3" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>214</v>
-      </c>
-      <c r="B4" t="s">
-        <v>215</v>
+      <c r="A4" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>216</v>
-      </c>
-      <c r="B5" t="s">
-        <v>217</v>
+      <c r="A5" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2697,27 +3013,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B1" t="s">
-        <v>211</v>
+      <c r="A1" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
+      <c r="A2" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>249</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B3" t="s">
-        <v>215</v>
+      <c r="A3" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2734,19 +3050,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" t="s">
-        <v>225</v>
+      <c r="A1" t="s" s="0">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>261</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" t="s">
-        <v>227</v>
+      <c r="A2" t="s" s="0">
+        <v>262</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="324">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -680,6 +680,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -899,6 +905,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -929,6 +941,12 @@
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -1262,7 +1280,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-28T07:39:45-07:00</t>
+    <t>2024-04-01T14:53:07-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1447,103 +1465,103 @@
         <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
@@ -1551,7 +1569,7 @@
         <v>62</v>
       </c>
       <c r="AN2" t="s" s="41">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1566,10 +1584,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1657,10 +1675,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1678,10 +1696,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1699,18 +1717,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -1728,74 +1746,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>282</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>290</v>
+        <v>296</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>292</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -1859,18 +1877,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -1917,16 +1935,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2">
@@ -1934,13 +1952,13 @@
         <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2367,7 +2385,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2541,6 +2559,14 @@
         <v>142</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2548,7 +2574,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2556,394 +2582,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2961,42 +3003,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3014,26 +3056,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -3051,18 +3093,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>261</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>263</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -226,7 +226,7 @@
       <text>
         <t>(Required) State ("Yes" or "No") whether custom RNA or antibody probes were
 used. If custom probes were used, they must be listed in the
-"custom-probe_set.csv" file.</t>
+"custom_probe_set.csv" file.</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="1">
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="326">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1172,6 +1172,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
   </si>
   <si>
@@ -1280,7 +1286,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:53:07-07:00</t>
+    <t>2024-04-17T14:19:21-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1525,43 +1531,43 @@
         <v>280</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
@@ -1569,7 +1575,7 @@
         <v>62</v>
       </c>
       <c r="AN2" t="s" s="41">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -1644,7 +1650,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$9</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1738,7 +1744,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1814,6 +1820,14 @@
       </c>
       <c r="B9" t="s" s="0">
         <v>298</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -1877,18 +1891,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -1935,16 +1949,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
@@ -1952,13 +1966,13 @@
         <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -315,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="338">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -377,6 +377,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -473,6 +479,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -554,22 +566,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -596,27 +638,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -665,7 +695,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -773,6 +803,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1115,18 +1151,18 @@
     <t>mapped_area_unit</t>
   </si>
   <si>
+    <t>mm^2</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
+  </si>
+  <si>
     <t>um^2</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0010001</t>
   </si>
   <si>
-    <t>mm^2</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000082</t>
-  </si>
-  <si>
     <t>slide_id</t>
   </si>
   <si>
@@ -1160,12 +1196,6 @@
     <t>oligo_probe_panel</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 16 BC; PN 1000476</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000308</t>
-  </si>
-  <si>
     <t>NanoString Technologies; GeoMx Mouse Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-MsWTA-4</t>
   </si>
   <si>
@@ -1178,6 +1208,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
   </si>
   <si>
@@ -1208,18 +1244,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
-  </si>
-  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000382</t>
+  </si>
+  <si>
     <t>is_custom_probes_used</t>
   </si>
   <si>
@@ -1286,7 +1322,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-17T14:19:21-07:00</t>
+    <t>2024-08-03T11:47:19-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1462,129 +1498,129 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>277</v>
+        <v>289</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="AN2" t="s" s="41">
-        <v>318</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1593,7 +1629,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1681,10 +1717,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1702,10 +1738,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1723,18 +1759,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1752,82 +1788,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>283</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>286</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>288</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>290</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>292</v>
+        <v>304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>294</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>300</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -1845,12 +1881,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1868,12 +1904,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1891,18 +1927,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>308</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -1920,12 +1956,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1949,30 +1985,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>324</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +2018,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2260,6 +2296,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2267,7 +2319,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2275,98 +2327,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2384,12 +2460,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2407,178 +2483,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2588,7 +2664,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2596,410 +2672,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3017,42 +3101,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3070,26 +3154,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -3107,18 +3191,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -144,11 +144,13 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) For Visium, this is the area of spots that was covered by tissue
-within the captured area, not the total possible captured area which is fixed.
-For GeoMx this would be the area of the AOI being captured. For HiFi this is the
-summed area of the ROIs in a single flowcell lane. For CosMx, Xenium and
-Resolve, this is the area of the FOV (aka ROI) region being captured.</t>
+        <t>For Visium, this is the area of spots that was covered by tissue within the
+captured area, not the total possible captured area which is fixed. For GeoMx
+this would be the area of the AOI being captured. For HiFi this is the summed
+area of the ROIs in a single flowcell lane. For CosMx and Resolve, this is the
+area of the FOV (aka ROI) region being captured. For Xenium this is the total
+area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is the
+number of beads.</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
@@ -231,9 +233,10 @@
     </comment>
     <comment ref="AC1" authorId="1">
       <text>
-        <t>(Required) A label for the region of interest (ROI). For Xenium, Resolve and
-CosMx, this is the field of view (FOV) label. For GeoMx this can be found in the
-"Initial Dataset" spreadsheet (download from within Data Analysis Suite).</t>
+        <t>A label for the region of interest. For Resolve and CosMx, this is the field of
+view (FOV) label. For Xenium this is the ID of the region containing the
+analysis. For GeoMx this can be found in the "Initial Dataset" spreadsheet
+(download from within Data Analysis Suite).</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="1">
@@ -315,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="340">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1244,6 +1247,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
   </si>
   <si>
@@ -1322,7 +1331,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:47:19-07:00</t>
+    <t>2024-10-17T13:02:08-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1567,43 +1576,43 @@
         <v>292</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
@@ -1611,7 +1620,7 @@
         <v>66</v>
       </c>
       <c r="AN2" t="s" s="41">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -1686,7 +1695,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$10</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1780,7 +1789,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1864,6 +1873,14 @@
       </c>
       <c r="B10" t="s" s="0">
         <v>312</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -1927,18 +1944,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -1985,16 +2002,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -2002,13 +2019,13 @@
         <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="352">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -458,6 +458,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -482,6 +488,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -557,18 +569,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -581,13 +593,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -623,24 +641,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -743,6 +761,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1205,24 +1229,60 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell Fixed RNA Mouse Transcriptome Probe Kit, 64 rxns; PN 1000492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Human Multi-Tissue and Cancer Panel v1; PN 1000626</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000395</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
-  </si>
-  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
@@ -1235,30 +1295,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
-  </si>
-  <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
@@ -1331,7 +1367,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-10-17T13:02:08-07:00</t>
+    <t>2025-01-08T12:47:40-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1507,135 +1543,135 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>287</v>
+        <v>295</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>288</v>
+        <v>296</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>331</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AN2" t="s" s="41">
-        <v>332</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1695,7 +1731,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$11</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$13</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1726,10 +1762,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1747,10 +1783,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1768,18 +1804,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -1789,7 +1825,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1797,90 +1833,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>306</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>312</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>314</v>
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -1898,12 +1950,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1921,12 +1973,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1944,18 +1996,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -1973,12 +2025,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2002,30 +2054,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>338</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>339</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2035,7 +2087,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2329,6 +2381,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2336,7 +2404,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2344,122 +2412,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -2477,12 +2553,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2492,7 +2568,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2500,178 +2576,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2689,418 +2773,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -3118,42 +3202,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -3171,26 +3255,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -3208,18 +3292,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -294,9 +294,9 @@
     </comment>
     <comment ref="AM1" authorId="1">
       <text>
-        <t>(Required) A semicolon separated list of non-shared files to be included in the
-dataset. The path assumes the files are located in the "TOP/non-global/"
-directory. For example, for the file is
+        <t>A semicolon separated list of non-shared files to be included in the dataset.
+The path assumes the files are located in the "TOP/non-global/" directory. For
+example, for the file is
 TOP/non-global/lab_processed/images/1-tissue-boundary.geojson the value of this
 field would be "./lab_processed/images/1-tissue-boundary.geojson". After ingest,
 these files will be copied to the appropriate locations within the respective
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="358">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -707,6 +707,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
+  </si>
+  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -1064,6 +1070,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1106,6 +1118,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1367,7 +1385,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:47:40-08:00</t>
+    <t>2025-01-22T09:56:35-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1552,103 +1570,103 @@
         <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
@@ -1656,7 +1674,7 @@
         <v>70</v>
       </c>
       <c r="AN2" t="s" s="41">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -1671,10 +1689,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$54</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1762,10 +1780,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1783,10 +1801,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1804,18 +1822,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -1833,106 +1851,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -1996,18 +2014,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2054,16 +2072,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
@@ -2071,13 +2089,13 @@
         <v>70</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2586,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2758,6 +2776,14 @@
         <v>162</v>
       </c>
     </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>164</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2765,7 +2791,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2773,418 +2799,434 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -3202,42 +3244,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3255,26 +3297,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3292,18 +3334,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -58,10 +58,10 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
 https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
@@ -114,8 +114,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="396">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -404,10 +404,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -506,6 +506,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -560,6 +566,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -671,40 +689,100 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
   </si>
   <si>
     <t>Vizgen</t>
@@ -719,12 +797,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -737,18 +809,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -773,48 +833,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -866,6 +896,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -884,12 +920,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -902,12 +956,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -920,12 +986,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -950,6 +1034,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -992,6 +1082,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -1253,6 +1349,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Prime 5K Human Pan Tissue &amp; Pathways Panel; PN 1000724</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000426</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
   </si>
   <si>
@@ -1265,6 +1367,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
   </si>
   <si>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit v2.0 - Small; PN 1000667</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000431</t>
+  </si>
+  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -1313,6 +1421,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Human Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-H-USCP-1KP-R</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000430</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
@@ -1385,7 +1499,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-22T09:56:35-08:00</t>
+    <t>2025-04-24T10:52:54-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1561,126 +1675,126 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>274</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>275</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>286</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>287</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>288</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>289</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>290</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>291</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>296</v>
+        <v>328</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>297</v>
+        <v>329</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>334</v>
+        <v>372</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>336</v>
+        <v>374</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>341</v>
+        <v>379</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>345</v>
+        <v>383</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>349</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AN2" t="s" s="41">
-        <v>350</v>
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1689,10 +1803,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$54</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1749,7 +1863,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$13</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1780,10 +1894,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1801,10 +1915,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1822,18 +1936,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +1957,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1851,106 +1965,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>342</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>311</v>
+        <v>343</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>312</v>
+        <v>344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>314</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>316</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>319</v>
+        <v>351</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>326</v>
+        <v>358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>328</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>330</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>332</v>
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -1968,12 +2106,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1991,12 +2129,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2014,18 +2152,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>337</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>338</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>339</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>340</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -2043,12 +2181,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2072,30 +2210,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>356</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>357</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2243,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2413,6 +2551,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2430,130 +2592,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2571,12 +2733,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2586,7 +2748,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2594,194 +2756,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2791,7 +2969,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2799,434 +2977,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>273</v>
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3244,42 +3518,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>276</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>277</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>284</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>285</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -3297,26 +3571,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>282</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>283</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -3334,18 +3608,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>294</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>295</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="400">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1058,6 +1058,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1127,7 +1139,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1499,7 +1511,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:52:54-07:00</t>
+    <t>2025-05-12T10:17:46-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1687,100 +1699,100 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="2">
@@ -1788,7 +1800,7 @@
         <v>72</v>
       </c>
       <c r="AN2" t="s" s="41">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
   </sheetData>
@@ -1806,7 +1818,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1894,10 +1906,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1915,10 +1927,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1936,18 +1948,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -1965,130 +1977,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -2152,18 +2164,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2210,16 +2222,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
@@ -2227,13 +2239,13 @@
         <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -2969,7 +2981,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3425,26 +3437,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -3501,6 +3513,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -3518,42 +3546,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3571,26 +3599,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -3608,18 +3636,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
+++ b/geomx-ncounter/v2.0.0/geomx-ncounter-v2.0.0.xlsx
@@ -169,7 +169,7 @@
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) The number of distinct color channels in the image.</t>
+        <t>(Required) The number of distinct fluorescent channels in the image.</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -318,7 +318,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="408">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -383,7 +383,7 @@
     <t>Stereo-seq</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
   </si>
   <si>
     <t>Visium (with probes)</t>
@@ -476,6 +476,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -713,6 +719,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -1421,6 +1433,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
+  </si>
+  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
@@ -1439,6 +1457,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000430</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000437</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
@@ -1511,7 +1535,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:17:46-07:00</t>
+    <t>2025-06-04T14:00:59-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1687,126 +1711,126 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>388</v>
+        <v>396</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>391</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN2" t="s" s="41">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="25">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1815,7 +1839,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
@@ -1875,7 +1899,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AA2:AA1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$16</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -1906,10 +1930,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1927,10 +1951,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1948,18 +1972,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1993,7 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1977,130 +2001,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -2118,12 +2158,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2141,12 +2181,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2164,18 +2204,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -2193,12 +2233,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2222,30 +2262,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>399</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -2255,7 +2295,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2587,6 +2627,14 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2604,130 +2652,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2745,12 +2793,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2760,7 +2808,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2768,210 +2816,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2989,546 +3045,546 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -3546,42 +3602,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -3599,26 +3655,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -3636,18 +3692,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
